--- a/fuentes/contenidos/grado10/guion08/Escaleta_CN_10_08_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion08/Escaleta_CN_10_08_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
@@ -14,9 +19,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$27</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="221">
   <si>
     <t>Asignatura</t>
   </si>
@@ -437,30 +442,15 @@
     <t>Las escalas de temperatura</t>
   </si>
   <si>
-    <t>Interactivo que explica cuáles son las distintas unidades de medida de temperatura y su equivalencia</t>
-  </si>
-  <si>
     <t>Practica con las escalas de temperatura</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad que persigue aprender a convertir grados Celsius en Kelvin, grados Fahrenheit en Celsius y muchas otras combinaciones.  </t>
   </si>
   <si>
-    <t>¿Cómo se transfiere el calor?</t>
-  </si>
-  <si>
-    <t>La energía térmica</t>
-  </si>
-  <si>
-    <t>Interactivo con vídeo incluido que muestra cómo dos elementos tienden a alcanzar el equilibrio térmico</t>
-  </si>
-  <si>
     <t>Consolidación</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Diferencia calor y temperatura</t>
-  </si>
-  <si>
     <t>Actividad que permite aplicar los conceptos de calor y temperatura</t>
   </si>
   <si>
@@ -479,9 +469,6 @@
     <t>Calor específico y capacidad calorífica</t>
   </si>
   <si>
-    <t>El calor específico y la capacidad calorífica</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -494,9 +481,6 @@
     <t>¿Qué sabes sobre el calor específico?</t>
   </si>
   <si>
-    <t>Interactivo que permite la comprensión y la aplicación del calor específico y la capacidad calorífica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad para profundizar en el concepto de calor específico o capacidad calorífica </t>
   </si>
   <si>
@@ -512,12 +496,6 @@
     <t>Calor latente y cambios de estado</t>
   </si>
   <si>
-    <t>Los cambios de estado</t>
-  </si>
-  <si>
-    <t>Interactivo que explica cuáles son los distintos tipos de cambios de estado y si se deben a un proceso de absorción o cesión de calor</t>
-  </si>
-  <si>
     <t>Curva de calentamiento</t>
   </si>
   <si>
@@ -551,57 +529,18 @@
     <t>Dilatación térmica</t>
   </si>
   <si>
-    <t>Recurso que permite profundizar el concepto de dilatación térmica incluyendo ejemplos de aplicación</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t>Los efectos del calor sobre los cuerpos</t>
-  </si>
-  <si>
-    <t>Interactivo que incluye actividad que sirve para para observar cómo afecta la temperatura a cuerpos en estado sólido, líquido y gaseoso</t>
-  </si>
-  <si>
-    <t>La dilatación del agua</t>
-  </si>
-  <si>
-    <t>La dilatación anómala del agua en una aplicación geológica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animación que presenta el proceso de gelivación </t>
-  </si>
-  <si>
     <t>¿Qué tanto sabes sobre dilatación y calor?</t>
   </si>
   <si>
     <t>Actividad que refuerza los conceptos básicos sobre dilatación</t>
   </si>
   <si>
-    <t>El comportamiento anómalo del agua</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Identifica los conceptos de calor y temperatura</t>
   </si>
   <si>
     <t>Actividad de refuerzo acerca del calor y la temperatura</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Resuelve un crucigrama sobre el calor</t>
-  </si>
-  <si>
-    <t>Actividad para profundizar sobre los conceptos de relacionados con el concepto de calor</t>
-  </si>
-  <si>
-    <t>Resuelve un crucigrama sobre el calor</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Aplica los conceptos de calor específico y calor latente</t>
-  </si>
-  <si>
-    <t>Actividad que permite solucionar problemas de calor específico y calor latente</t>
-  </si>
-  <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
@@ -644,9 +583,6 @@
     <t xml:space="preserve">Ecuación de estado de un gas ideal </t>
   </si>
   <si>
-    <t>Recurso F4-04</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Analiza situaciones que involucran el gas ideal</t>
   </si>
   <si>
@@ -674,15 +610,6 @@
     <t xml:space="preserve">Actividad que propone situaciones problema sobre trabajo y gas ideal </t>
   </si>
   <si>
-    <t xml:space="preserve">Segunda Ley de la termodinámica </t>
-  </si>
-  <si>
-    <t>Leyes de la termodinámica y máquinas térmicas</t>
-  </si>
-  <si>
-    <t>Interactivo que permite la comprensión de las leyes de la termodinámica y el funcionamiento de las máquinas térmicas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: Resuelve problemas sobre las leyes de la termodinámica  </t>
   </si>
   <si>
@@ -692,21 +619,12 @@
     <t>Competencias</t>
   </si>
   <si>
-    <t xml:space="preserve"> Actividad que propone a través de gráficas calcular la potencia de acuerdo con la relación fuerza - velocidad</t>
-  </si>
-  <si>
     <t>Fin de tema</t>
   </si>
   <si>
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Evalúa tus conocimientos sobre el tema Trabajo y energía</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema Trabajo y energía</t>
-  </si>
-  <si>
     <t>Competencias: dilatación térmica</t>
   </si>
   <si>
@@ -716,15 +634,9 @@
     <t>Recurso F13B-01</t>
   </si>
   <si>
-    <t>Recurso M7A-01</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema Termodinámica</t>
   </si>
   <si>
-    <t>Identificando las características fundamentales de la termodinámica</t>
-  </si>
-  <si>
     <t>Banco de actividades: Termodinámica</t>
   </si>
   <si>
@@ -737,9 +649,6 @@
     <t>Recurso M5A-03</t>
   </si>
   <si>
-    <t>Competencias:Identificando situaciones que involucrana la termodinámica</t>
-  </si>
-  <si>
     <t>Recurso F7B-02</t>
   </si>
   <si>
@@ -755,19 +664,43 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>Recurso M5A-04</t>
-  </si>
-  <si>
     <t>Recurso F4-02</t>
   </si>
   <si>
     <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Calor y temperatura</t>
+  </si>
+  <si>
+    <t>Interactivo que explica los temas de calor y temperatura y establece sus diferencias</t>
+  </si>
+  <si>
+    <t>Diferencia calor y temperatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hablar sobre energía térmica, ademas de estas temas de calor y termperatura, incluir las escalas de teperatura, existe recurso para aprovechar </t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema Termodinámica</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema Termodinámica</t>
+  </si>
+  <si>
+    <t>Las propiedades térmicas de la materia</t>
+  </si>
+  <si>
+    <t>Interactivo que permite conocer las propiedades termicas de la materia</t>
+  </si>
+  <si>
+    <t>Hablasr sobre calor específico, capacidad calorífica, calor latente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -928,7 +861,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,14 +1107,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1339,6 +1266,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1384,7 +1333,7 @@
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1487,23 +1436,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1511,6 +1448,45 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1529,50 +1505,65 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1594,10 +1585,11 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -1614,7 +1606,6 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1624,6 +1615,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1687,7 +1681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1722,7 +1716,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1931,11 +1925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,94 +1958,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2184,8 +2178,8 @@
         <v>134</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="9" t="s">
-        <v>135</v>
+      <c r="G5" s="78" t="s">
+        <v>212</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
@@ -2194,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>19</v>
@@ -2206,7 +2200,9 @@
         <v>57</v>
       </c>
       <c r="N5" s="24"/>
-      <c r="O5" s="20"/>
+      <c r="O5" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="P5" s="20" t="s">
         <v>19</v>
       </c>
@@ -2244,7 +2240,7 @@
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="8">
         <v>4</v>
@@ -2253,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>19</v>
@@ -2279,7 +2275,7 @@
         <v>130</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U6" s="25" t="s">
         <v>128</v>
@@ -2299,111 +2295,111 @@
         <v>124</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="9" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="O7" s="20"/>
       <c r="P7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R7" s="26" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="9" t="s">
-        <v>143</v>
+      <c r="E8" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66" t="s">
+        <v>167</v>
       </c>
       <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20" t="s">
+      <c r="M8" s="71"/>
+      <c r="N8" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="72">
         <v>6</v>
       </c>
-      <c r="R8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R8" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="U8" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -2414,52 +2410,54 @@
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="9" t="s">
-        <v>184</v>
+        <v>143</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="60" t="s">
+        <v>218</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20" t="s">
+      <c r="L9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="15">
         <v>6</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="T9" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>234</v>
+      <c r="T9" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2473,52 +2471,52 @@
         <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" s="8">
         <v>8</v>
       </c>
       <c r="I10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="L10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="O10" s="20"/>
       <c r="P10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="U10" s="25" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2532,14 +2530,14 @@
         <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H11" s="8">
         <v>9</v>
@@ -2548,7 +2546,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>19</v>
@@ -2558,7 +2556,7 @@
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O11" s="20"/>
       <c r="P11" s="20" t="s">
@@ -2574,7 +2572,7 @@
         <v>130</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U11" s="25" t="s">
         <v>128</v>
@@ -2591,52 +2589,52 @@
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
       </c>
       <c r="I12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="L12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="24"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="U12" s="25" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2650,52 +2648,52 @@
         <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="O13" s="20"/>
       <c r="P13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R13" s="26" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="S13" s="25" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="T13" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="U13" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2709,52 +2707,52 @@
         <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
       </c>
       <c r="I14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="L14" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="U14" s="25" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2768,10 +2766,10 @@
         <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="9" t="s">
@@ -2781,101 +2779,101 @@
         <v>13</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>166</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R15" s="26" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="S15" s="25" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="U15" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="72">
+        <v>6</v>
+      </c>
+      <c r="R16" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>10</v>
-      </c>
-      <c r="R16" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="T16" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U16" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2886,52 +2884,52 @@
         <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="9" t="s">
+      <c r="E17" s="59" t="s">
         <v>174</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="60" t="s">
+        <v>175</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20" t="s">
+      <c r="M17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="15">
         <v>6</v>
       </c>
-      <c r="R17" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="S17" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="U17" s="25" t="s">
-        <v>241</v>
+      <c r="R17" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2945,175 +2943,175 @@
         <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="O18" s="20"/>
       <c r="P18" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="37" t="s">
+      <c r="D19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39" t="s">
+      <c r="E19" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="8">
         <v>17</v>
       </c>
-      <c r="I19" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>182</v>
+      <c r="I19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40" t="s">
+      <c r="M19" s="24"/>
+      <c r="N19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39" t="s">
+      <c r="O19" s="20"/>
+      <c r="P19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="25">
         <v>6</v>
       </c>
-      <c r="R19" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="S19" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="T19" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="R19" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>179</v>
+      <c r="E20" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66" t="s">
+        <v>183</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K20" s="22" t="s">
+      <c r="J20" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="20" t="s">
+      <c r="Q20" s="72">
         <v>6</v>
       </c>
-      <c r="P20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>8</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="T20" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="U20" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R20" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="U20" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -3124,52 +3122,52 @@
         <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="9" t="s">
         <v>186</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="60" t="s">
+        <v>188</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" s="22" t="s">
+      <c r="L21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>10</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>128</v>
+      <c r="Q21" s="15">
+        <v>6</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3183,14 +3181,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
@@ -3199,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>20</v>
@@ -3219,78 +3217,78 @@
         <v>6</v>
       </c>
       <c r="R22" s="26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="9" t="s">
+      <c r="D23" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66" t="s">
         <v>192</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24" t="s">
+      <c r="M23" s="71"/>
+      <c r="N23" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20" t="s">
+      <c r="O23" s="65"/>
+      <c r="P23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="72">
         <v>6</v>
       </c>
-      <c r="R23" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="U23" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R23" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="S23" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="U23" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
@@ -3301,55 +3299,53 @@
         <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="60" t="s">
         <v>197</v>
       </c>
       <c r="H24" s="8">
         <v>22</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>19</v>
+      <c r="I24" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20" t="s">
+      <c r="L24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24" s="15">
         <v>6</v>
       </c>
-      <c r="R24" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="S24" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="T24" s="27" t="s">
+      <c r="R24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T24" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="U24" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U24" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -3362,17 +3358,15 @@
       <c r="D25" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="9" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H25" s="8">
         <v>23</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="10" t="s">
@@ -3382,31 +3376,17 @@
         <v>20</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M25" s="24"/>
-      <c r="N25" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="N25" s="24"/>
       <c r="O25" s="20"/>
-      <c r="P25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>6</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S25" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3421,14 +3401,10 @@
       <c r="D26" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="H26" s="8">
         <v>24</v>
@@ -3437,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>20</v>
@@ -3447,7 +3423,7 @@
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O26" s="20"/>
       <c r="P26" s="20" t="s">
@@ -3457,16 +3433,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S26" s="25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3482,12 +3458,10 @@
       <c r="D27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>142</v>
-      </c>
+      <c r="E27" s="19"/>
       <c r="F27" s="20"/>
       <c r="G27" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H27" s="8">
         <v>25</v>
@@ -3496,7 +3470,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>20</v>
@@ -3506,468 +3480,202 @@
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="O27" s="20"/>
       <c r="P27" s="20" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="Q27" s="25">
         <v>6</v>
       </c>
       <c r="R27" s="26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S27" s="25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U27" s="25" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>210</v>
-      </c>
+      <c r="A28" s="31"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H28" s="8">
-        <v>26</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>57</v>
-      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
       <c r="N28" s="24"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>6</v>
-      </c>
-      <c r="R28" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="S28" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="U28" s="25" t="s">
-        <v>241</v>
-      </c>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="25"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>210</v>
-      </c>
+      <c r="A29" s="31"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="8">
-        <v>27</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="24"/>
-      <c r="N29" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="N29" s="24"/>
       <c r="O29" s="20"/>
-      <c r="P29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="25">
-        <v>6</v>
-      </c>
-      <c r="R29" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S29" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T29" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="U29" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="25"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>215</v>
-      </c>
+      <c r="A30" s="31"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H30" s="8">
-        <v>28</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>53</v>
-      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="25">
-        <v>6</v>
-      </c>
-      <c r="R30" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="S30" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="T30" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="U30" s="25" t="s">
-        <v>241</v>
-      </c>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="25"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>142</v>
-      </c>
+      <c r="A31" s="31"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="8">
-        <v>29</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="24"/>
-      <c r="N31" s="24" t="s">
-        <v>121</v>
-      </c>
+      <c r="N31" s="24"/>
       <c r="O31" s="20"/>
-      <c r="P31" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>6</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S31" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T31" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="U31" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="25"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="A32" s="31"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="8">
-        <v>30</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="20"/>
-      <c r="P32" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>6</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="T32" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>241</v>
-      </c>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="25"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="A33" s="31"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="8">
-        <v>31</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="N33" s="24"/>
       <c r="O33" s="20"/>
-      <c r="P33" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>6</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S33" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T33" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="U33" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="25"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A34" s="31"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H34" s="8">
-        <v>32</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="24"/>
-      <c r="N34" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="N34" s="24"/>
       <c r="O34" s="20"/>
-      <c r="P34" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="25">
-        <v>6</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S34" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="25"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A35" s="31"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="8">
-        <v>33</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="20"/>
@@ -3979,118 +3687,50 @@
       <c r="U35" s="25"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A36" s="31"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H36" s="8">
-        <v>34</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="24"/>
-      <c r="N36" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="N36" s="24"/>
       <c r="O36" s="20"/>
-      <c r="P36" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="25">
-        <v>6</v>
-      </c>
-      <c r="R36" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S36" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="U36" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="25"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A37" s="31"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H37" s="8">
-        <v>35</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>8</v>
-      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="24"/>
-      <c r="N37" s="24" t="s">
-        <v>52</v>
-      </c>
+      <c r="N37" s="24"/>
       <c r="O37" s="20"/>
-      <c r="P37" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>6</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S37" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="U37" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="25"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
@@ -4598,423 +4238,202 @@
       <c r="T59" s="27"/>
       <c r="U59" s="25"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="25"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="25"/>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="25"/>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="25"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="25"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="25"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="25"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="25"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="25"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="25"/>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U27">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5029,15 +4448,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -5045,37 +4458,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N31 N38:N69 N36</xm:sqref>
+          <xm:sqref>N28:N59 N26 N3:N24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A31 A38:A69</xm:sqref>
+          <xm:sqref>A28:A59 A3:A23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K38:K69 P3:P69 I3:I31 I38:I69 K3:K31</xm:sqref>
+          <xm:sqref>K28:K59 I28:I59 P3:P59 K3:K23 I3:I23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L31 L38:L69</xm:sqref>
+          <xm:sqref>L28:L59 L3:L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M31 M38:M69</xm:sqref>
+          <xm:sqref>M28:M59 M3:M23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
+            <xm:f>'D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion08\[escaleta CN_10_05.xlsx]DATOS'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A32:A37 I32:I37 K32:M37 N32:N35 N37</xm:sqref>
+          <xm:sqref>N27 A24:A27 I24:I27 K24:M27 N25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado10/guion08/Escaleta_CN_10_08_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion08/Escaleta_CN_10_08_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_08_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="223">
   <si>
     <t>Asignatura</t>
   </si>
@@ -565,9 +565,6 @@
     <t>Recurso que permite comprender el comportamiento a escala microscópica y macroscópica de un gas ideal</t>
   </si>
   <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
     <t>Actividad para resolver problemas aplicando las leyes de los gases ideales</t>
   </si>
   <si>
@@ -631,9 +628,6 @@
     <t>Actividad que propone realizar un experimento para analizar la dilatación térmica</t>
   </si>
   <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema Termodinámica</t>
   </si>
   <si>
@@ -695,6 +689,18 @@
   </si>
   <si>
     <t>Hablasr sobre calor específico, capacidad calorífica, calor latente</t>
+  </si>
+  <si>
+    <t>FQ_10_05</t>
+  </si>
+  <si>
+    <t>La hidrostática</t>
+  </si>
+  <si>
+    <t>Las leyes de los gases</t>
+  </si>
+  <si>
+    <t>Competencias: observación del cambio de estado del agua</t>
   </si>
 </sst>
 </file>
@@ -861,7 +867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1113,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -1333,7 +1345,7 @@
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1436,18 +1448,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1487,82 +1577,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1927,9 +1942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,94 +1973,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2178,8 +2193,8 @@
         <v>134</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="78" t="s">
-        <v>212</v>
+      <c r="G5" s="55" t="s">
+        <v>210</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
@@ -2188,7 +2203,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>19</v>
@@ -2201,7 +2216,7 @@
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P5" s="20" t="s">
         <v>19</v>
@@ -2299,7 +2314,7 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
@@ -2337,66 +2352,66 @@
         <v>142</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="43" t="s">
         <v>167</v>
       </c>
       <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71" t="s">
+      <c r="M8" s="48"/>
+      <c r="N8" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65" t="s">
+      <c r="O8" s="42"/>
+      <c r="P8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="72">
+      <c r="Q8" s="49">
         <v>6</v>
       </c>
-      <c r="R8" s="73" t="s">
+      <c r="R8" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="72" t="s">
+      <c r="S8" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="74" t="s">
+      <c r="T8" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="U8" s="72" t="s">
-        <v>203</v>
+      <c r="U8" s="49" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2412,12 +2427,12 @@
       <c r="D9" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="36" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="60" t="s">
-        <v>218</v>
+      <c r="G9" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
@@ -2426,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>20</v>
@@ -2439,7 +2454,7 @@
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>19</v>
@@ -2457,7 +2472,7 @@
         <v>147</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2631,10 +2646,10 @@
         <v>146</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U12" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2808,69 +2823,69 @@
         <v>141</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="43" t="s">
         <v>170</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71" t="s">
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="72">
+      <c r="Q16" s="49">
         <v>6</v>
       </c>
-      <c r="R16" s="73" t="s">
+      <c r="R16" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="S16" s="72" t="s">
+      <c r="S16" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="74" t="s">
+      <c r="T16" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="U16" s="72" t="s">
-        <v>203</v>
+      <c r="U16" s="49" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2886,11 +2901,11 @@
       <c r="D17" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="36" t="s">
         <v>174</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="37" t="s">
         <v>175</v>
       </c>
       <c r="H17" s="8">
@@ -2916,20 +2931,20 @@
       <c r="P17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="15">
-        <v>6</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>209</v>
+      <c r="Q17" s="79">
+        <v>8</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="T17" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="U17" s="79" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2950,7 +2965,7 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
@@ -2959,7 +2974,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>20</v>
@@ -2985,10 +3000,10 @@
         <v>141</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3008,10 +3023,10 @@
         <v>174</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H19" s="8">
         <v>17</v>
@@ -3020,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>20</v>
@@ -3046,69 +3061,69 @@
         <v>141</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U19" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66" t="s">
-        <v>183</v>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="49">
+        <v>6</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="72">
-        <v>6</v>
-      </c>
-      <c r="R20" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="S20" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T20" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="U20" s="72" t="s">
-        <v>203</v>
+      <c r="U20" s="49" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3122,14 +3137,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="37" t="s">
         <v>187</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="60" t="s">
-        <v>188</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
@@ -3138,7 +3153,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>20</v>
@@ -3164,10 +3179,10 @@
         <v>146</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3181,14 +3196,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>187</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
@@ -3197,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>20</v>
@@ -3223,69 +3238,69 @@
         <v>141</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="75" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="64" t="s">
+      <c r="D23" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66" t="s">
-        <v>192</v>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43" t="s">
+        <v>191</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="I23" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" s="69" t="s">
+      <c r="J23" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="70" t="s">
+      <c r="L23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71" t="s">
+      <c r="M23" s="48"/>
+      <c r="N23" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65" t="s">
+      <c r="O23" s="42"/>
+      <c r="P23" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="Q23" s="49">
         <v>6</v>
       </c>
-      <c r="R23" s="73" t="s">
+      <c r="R23" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="S23" s="72" t="s">
+      <c r="S23" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="U23" s="72" t="s">
-        <v>203</v>
+      <c r="T23" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="U23" s="49" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3299,12 +3314,12 @@
         <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="60" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="37" t="s">
+        <v>196</v>
       </c>
       <c r="H24" s="8">
         <v>22</v>
@@ -3313,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>20</v>
@@ -3322,27 +3337,27 @@
         <v>8</v>
       </c>
       <c r="M24" s="13"/>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="48" t="s">
         <v>120</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="15">
-        <v>6</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="S24" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>209</v>
+      <c r="Q24" s="79">
+        <v>8</v>
+      </c>
+      <c r="R24" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="S24" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="T24" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="U24" s="79" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3356,7 +3371,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="30"/>
@@ -3370,7 +3385,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>20</v>
@@ -3399,12 +3414,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="30"/>
       <c r="G26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="8">
         <v>24</v>
@@ -3413,7 +3428,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>20</v>
@@ -3439,10 +3454,10 @@
         <v>141</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3456,12 +3471,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
       <c r="G27" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H27" s="8">
         <v>25</v>
@@ -3470,7 +3485,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>20</v>
@@ -3484,7 +3499,7 @@
       </c>
       <c r="O27" s="20"/>
       <c r="P27" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q27" s="25">
         <v>6</v>
@@ -3496,10 +3511,10 @@
         <v>141</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U27" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4428,12 +4443,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4448,6 +4457,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion08/Escaleta_CN_10_08_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion08/Escaleta_CN_10_08_CO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_08_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -412,9 +412,6 @@
     <t>El equilibrio térmico</t>
   </si>
   <si>
-    <t>Interactivo que permite practicar con la temperatura, el calor y el equilibrio térmico</t>
-  </si>
-  <si>
     <t>Simulador F_Q</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>Practica con las escalas de temperatura</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que persigue aprender a convertir grados Celsius en Kelvin, grados Fahrenheit en Celsius y muchas otras combinaciones.  </t>
-  </si>
-  <si>
     <t>Consolidación</t>
   </si>
   <si>
@@ -559,12 +553,6 @@
     <t xml:space="preserve">Leyes de los gases ideales </t>
   </si>
   <si>
-    <t>Leyes de un gas ideal</t>
-  </si>
-  <si>
-    <t>Recurso que permite comprender el comportamiento a escala microscópica y macroscópica de un gas ideal</t>
-  </si>
-  <si>
     <t>Actividad para resolver problemas aplicando las leyes de los gases ideales</t>
   </si>
   <si>
@@ -574,9 +562,6 @@
     <t>Actividad que permite resolver problemas usando la ecuación de estado</t>
   </si>
   <si>
-    <t>Resuelve problemas con la ecuación de estado de un gas ideal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ecuación de estado de un gas ideal </t>
   </si>
   <si>
@@ -664,12 +649,6 @@
     <t>Recurso M4A-01</t>
   </si>
   <si>
-    <t>Calor y temperatura</t>
-  </si>
-  <si>
-    <t>Interactivo que explica los temas de calor y temperatura y establece sus diferencias</t>
-  </si>
-  <si>
     <t>Diferencia calor y temperatura</t>
   </si>
   <si>
@@ -685,9 +664,6 @@
     <t>Las propiedades térmicas de la materia</t>
   </si>
   <si>
-    <t>Interactivo que permite conocer las propiedades termicas de la materia</t>
-  </si>
-  <si>
     <t>Hablasr sobre calor específico, capacidad calorífica, calor latente</t>
   </si>
   <si>
@@ -701,6 +677,30 @@
   </si>
   <si>
     <t>Competencias: observación del cambio de estado del agua</t>
+  </si>
+  <si>
+    <t>Interactivo que permite observar efectos relacionados con la temperatura, el calor y el equilibrio térmico</t>
+  </si>
+  <si>
+    <t>Interactivo que explica cuáles con las distintas unidades de medida de temperatura y su equivalencia</t>
+  </si>
+  <si>
+    <t>Actividad para practicar la conversión de grados Celsius en Kelvin, grados Fahrenheit en Celsius y muchas otras combinaciones</t>
+  </si>
+  <si>
+    <t>Interactivo que permite conocer las propiedades térmicas de la materia</t>
+  </si>
+  <si>
+    <t>Las leyes de un gas ideal</t>
+  </si>
+  <si>
+    <t>Interactivo que permite comprender el comportamiento a escala microscópica y macroscópica de un gas ideal</t>
+  </si>
+  <si>
+    <t>Resuelve problemas de gas ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resuelve problemas con la ecuación de estado de un gas ideal </t>
   </si>
 </sst>
 </file>
@@ -1508,12 +1508,60 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,54 +1579,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1729,6 +1729,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1764,6 +1781,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1942,9 +1976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24:U24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,7 +1992,7 @@
     <col min="7" max="7" width="87.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="35" customWidth="1"/>
     <col min="9" max="9" width="11" style="35" customWidth="1"/>
-    <col min="10" max="10" width="141.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="74.140625" style="18" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="18" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="18" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="18" customWidth="1"/>
@@ -1973,94 +2007,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="56" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="74" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="71"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="75"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2084,10 +2118,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>19</v>
@@ -2098,7 +2132,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>19</v>
@@ -2107,16 +2141,16 @@
         <v>10</v>
       </c>
       <c r="R3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="U3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2135,7 +2169,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="20"/>
       <c r="G4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="8">
         <v>2</v>
@@ -2144,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>19</v>
@@ -2164,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="R4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="25" t="s">
-        <v>130</v>
-      </c>
       <c r="T4" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2190,11 +2224,11 @@
         <v>124</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="55" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
@@ -2203,7 +2237,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>19</v>
@@ -2216,7 +2250,7 @@
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P5" s="20" t="s">
         <v>19</v>
@@ -2225,16 +2259,16 @@
         <v>10</v>
       </c>
       <c r="R5" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>130</v>
-      </c>
       <c r="T5" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2251,11 +2285,11 @@
         <v>124</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="8">
         <v>4</v>
@@ -2264,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>19</v>
@@ -2284,16 +2318,16 @@
         <v>10</v>
       </c>
       <c r="R6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="S6" s="25" t="s">
-        <v>130</v>
-      </c>
       <c r="T6" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2310,11 +2344,11 @@
         <v>124</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
@@ -2323,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>20</v>
@@ -2343,16 +2377,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>142</v>
-      </c>
       <c r="U7" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2369,11 +2403,11 @@
         <v>124</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="8">
         <v>6</v>
@@ -2382,7 +2416,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K8" s="46" t="s">
         <v>20</v>
@@ -2402,16 +2436,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S8" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T8" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U8" s="49" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2425,14 +2459,14 @@
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="37" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
@@ -2441,7 +2475,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>20</v>
@@ -2454,7 +2488,7 @@
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>19</v>
@@ -2463,16 +2497,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T9" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="S9" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="U9" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2486,14 +2520,14 @@
         <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H10" s="8">
         <v>8</v>
@@ -2502,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>19</v>
@@ -2522,16 +2556,16 @@
         <v>10</v>
       </c>
       <c r="R10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S10" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="S10" s="25" t="s">
-        <v>130</v>
-      </c>
       <c r="T10" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U10" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2545,14 +2579,14 @@
         <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H11" s="8">
         <v>9</v>
@@ -2561,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>19</v>
@@ -2581,16 +2615,16 @@
         <v>10</v>
       </c>
       <c r="R11" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="S11" s="25" t="s">
-        <v>130</v>
-      </c>
       <c r="T11" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U11" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2604,14 +2638,14 @@
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
@@ -2620,7 +2654,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>20</v>
@@ -2640,16 +2674,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U12" s="25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2663,14 +2697,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
@@ -2679,7 +2713,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>19</v>
@@ -2699,16 +2733,16 @@
         <v>8</v>
       </c>
       <c r="R13" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="U13" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2722,14 +2756,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
@@ -2738,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>19</v>
@@ -2758,16 +2792,16 @@
         <v>10</v>
       </c>
       <c r="R14" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="S14" s="25" t="s">
-        <v>130</v>
-      </c>
       <c r="T14" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U14" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2781,23 +2815,23 @@
         <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>20</v>
@@ -2811,22 +2845,22 @@
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="20" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="Q15" s="25">
         <v>6</v>
       </c>
       <c r="R15" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S15" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2840,14 +2874,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
@@ -2856,7 +2890,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K16" s="46" t="s">
         <v>20</v>
@@ -2876,16 +2910,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S16" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T16" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U16" s="49" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2899,14 +2933,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="37" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
@@ -2915,7 +2949,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>20</v>
@@ -2931,20 +2965,20 @@
       <c r="P17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="79">
+      <c r="Q17" s="56">
         <v>8</v>
       </c>
-      <c r="R17" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="S17" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="T17" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="U17" s="79" t="s">
-        <v>219</v>
+      <c r="R17" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="T17" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="U17" s="56" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2958,14 +2992,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="9" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
@@ -2974,7 +3008,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>20</v>
@@ -2994,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3017,16 +3051,16 @@
         <v>123</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="H19" s="8">
         <v>17</v>
@@ -3035,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>20</v>
@@ -3049,22 +3083,22 @@
       </c>
       <c r="O19" s="20"/>
       <c r="P19" s="20" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="25">
         <v>6</v>
       </c>
       <c r="R19" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S19" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U19" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3078,14 +3112,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
@@ -3094,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K20" s="46" t="s">
         <v>20</v>
@@ -3114,16 +3148,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S20" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T20" s="51" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U20" s="49" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3137,14 +3171,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="37" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
@@ -3153,7 +3187,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>20</v>
@@ -3173,16 +3207,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3196,14 +3230,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
@@ -3212,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>20</v>
@@ -3232,16 +3266,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3255,14 +3289,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="43" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
@@ -3271,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K23" s="46" t="s">
         <v>20</v>
@@ -3291,16 +3325,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S23" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T23" s="51" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="U23" s="49" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3314,12 +3348,12 @@
         <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="54"/>
       <c r="G24" s="37" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H24" s="8">
         <v>22</v>
@@ -3328,7 +3362,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>20</v>
@@ -3344,20 +3378,20 @@
       <c r="P24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="79">
+      <c r="Q24" s="56">
         <v>8</v>
       </c>
-      <c r="R24" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="S24" s="79" t="s">
+      <c r="R24" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="S24" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="T24" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="U24" s="56" t="s">
         <v>159</v>
-      </c>
-      <c r="T24" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="U24" s="79" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3371,7 +3405,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="30"/>
@@ -3385,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>20</v>
@@ -3414,12 +3448,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="30"/>
       <c r="G26" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H26" s="8">
         <v>24</v>
@@ -3428,7 +3462,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>20</v>
@@ -3448,16 +3482,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S26" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3471,12 +3505,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
       <c r="G27" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H27" s="8">
         <v>25</v>
@@ -3485,7 +3519,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>20</v>
@@ -3499,22 +3533,22 @@
       </c>
       <c r="O27" s="20"/>
       <c r="P27" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="25">
         <v>6</v>
       </c>
       <c r="R27" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S27" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="U27" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4443,6 +4477,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4457,12 +4497,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
